--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-C5ar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-C5ar2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H2">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>31.58536933333333</v>
+        <v>0.002689333333333334</v>
       </c>
       <c r="N2">
-        <v>94.756108</v>
+        <v>0.008068000000000001</v>
       </c>
       <c r="O2">
-        <v>0.9977498952298519</v>
+        <v>0.03638167388167388</v>
       </c>
       <c r="P2">
-        <v>0.9977498952298519</v>
+        <v>0.03638167388167389</v>
       </c>
       <c r="Q2">
-        <v>1480.043397401975</v>
+        <v>0.0001117418</v>
       </c>
       <c r="R2">
-        <v>13320.39057661778</v>
+        <v>0.0010056762</v>
       </c>
       <c r="S2">
-        <v>0.1415864276068861</v>
+        <v>5.334165257449269E-06</v>
       </c>
       <c r="T2">
-        <v>0.1415864276068861</v>
+        <v>5.334165257449271E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H3">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.205335</v>
       </c>
       <c r="O3">
-        <v>0.002162108375504634</v>
+        <v>0.9259334415584415</v>
       </c>
       <c r="P3">
-        <v>0.002162108375504634</v>
+        <v>0.9259334415584416</v>
       </c>
       <c r="Q3">
-        <v>3.207230831025</v>
+        <v>0.002843889749999999</v>
       </c>
       <c r="R3">
-        <v>28.865077479225</v>
+        <v>0.02559500775</v>
       </c>
       <c r="S3">
-        <v>0.0003068155681601016</v>
+        <v>0.0001357574148659328</v>
       </c>
       <c r="T3">
-        <v>0.0003068155681601017</v>
+        <v>0.0001357574148659328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H4">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I4">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J4">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.008357</v>
       </c>
       <c r="O4">
-        <v>8.799639464334978E-05</v>
+        <v>0.03768488455988456</v>
       </c>
       <c r="P4">
-        <v>8.799639464334977E-05</v>
+        <v>0.03768488455988456</v>
       </c>
       <c r="Q4">
-        <v>0.1305321939994444</v>
+        <v>0.00011574445</v>
       </c>
       <c r="R4">
-        <v>1.174789745995</v>
+        <v>0.00104170005</v>
       </c>
       <c r="S4">
-        <v>1.248719265158872E-05</v>
+        <v>5.525237860250811E-06</v>
       </c>
       <c r="T4">
-        <v>1.248719265158872E-05</v>
+        <v>5.525237860250811E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>849.531647</v>
       </c>
       <c r="I5">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J5">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>31.58536933333333</v>
+        <v>0.002689333333333334</v>
       </c>
       <c r="N5">
-        <v>94.756108</v>
+        <v>0.008068000000000001</v>
       </c>
       <c r="O5">
-        <v>0.9977498952298519</v>
+        <v>0.03638167388167388</v>
       </c>
       <c r="P5">
-        <v>0.9977498952298519</v>
+        <v>0.03638167388167389</v>
       </c>
       <c r="Q5">
-        <v>8944.256943616652</v>
+        <v>0.7615579253328889</v>
       </c>
       <c r="R5">
-        <v>80498.31249254987</v>
+        <v>6.854021327996001</v>
       </c>
       <c r="S5">
-        <v>0.8556407132843152</v>
+        <v>0.03635412913382316</v>
       </c>
       <c r="T5">
-        <v>0.8556407132843153</v>
+        <v>0.03635412913382317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>849.531647</v>
       </c>
       <c r="I6">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J6">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.205335</v>
       </c>
       <c r="O6">
-        <v>0.002162108375504634</v>
+        <v>0.9259334415584415</v>
       </c>
       <c r="P6">
-        <v>0.002162108375504634</v>
+        <v>0.9259334415584416</v>
       </c>
       <c r="Q6">
         <v>19.382064526305</v>
@@ -818,10 +818,10 @@
         <v>174.438580736745</v>
       </c>
       <c r="S6">
-        <v>0.0018541600068909</v>
+        <v>0.9252324127037157</v>
       </c>
       <c r="T6">
-        <v>0.0018541600068909</v>
+        <v>0.9252324127037158</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>849.531647</v>
       </c>
       <c r="I7">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J7">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.008357</v>
       </c>
       <c r="O7">
-        <v>8.799639464334978E-05</v>
+        <v>0.03768488455988456</v>
       </c>
       <c r="P7">
-        <v>8.799639464334977E-05</v>
+        <v>0.03768488455988456</v>
       </c>
       <c r="Q7">
         <v>0.7888373304421111</v>
@@ -880,10 +880,10 @@
         <v>7.099535973979</v>
       </c>
       <c r="S7">
-        <v>7.546309775531328E-05</v>
+        <v>0.03765635314469016</v>
       </c>
       <c r="T7">
-        <v>7.546309775531328E-05</v>
+        <v>0.03765635314469016</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.519022</v>
       </c>
       <c r="I8">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J8">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>31.58536933333333</v>
+        <v>0.002689333333333334</v>
       </c>
       <c r="N8">
-        <v>94.756108</v>
+        <v>0.008068000000000001</v>
       </c>
       <c r="O8">
-        <v>0.9977498952298519</v>
+        <v>0.03638167388167388</v>
       </c>
       <c r="P8">
-        <v>0.9977498952298519</v>
+        <v>0.03638167388167389</v>
       </c>
       <c r="Q8">
-        <v>5.464500520708444</v>
+        <v>0.0004652743884444444</v>
       </c>
       <c r="R8">
-        <v>49.180504686376</v>
+        <v>0.004187469496</v>
       </c>
       <c r="S8">
-        <v>0.000522754338650614</v>
+        <v>2.221058259327585E-05</v>
       </c>
       <c r="T8">
-        <v>0.000522754338650614</v>
+        <v>2.221058259327585E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.519022</v>
       </c>
       <c r="I9">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J9">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.205335</v>
       </c>
       <c r="O9">
-        <v>0.002162108375504634</v>
+        <v>0.9259334415584415</v>
       </c>
       <c r="P9">
-        <v>0.002162108375504634</v>
+        <v>0.9259334415584416</v>
       </c>
       <c r="Q9">
         <v>0.01184148693</v>
@@ -1004,10 +1004,10 @@
         <v>0.10657338237</v>
       </c>
       <c r="S9">
-        <v>1.132800453632222E-06</v>
+        <v>0.0005652714398599772</v>
       </c>
       <c r="T9">
-        <v>1.132800453632222E-06</v>
+        <v>0.0005652714398599772</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.519022</v>
       </c>
       <c r="I10">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J10">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,10 +1054,10 @@
         <v>0.008357</v>
       </c>
       <c r="O10">
-        <v>8.799639464334978E-05</v>
+        <v>0.03768488455988456</v>
       </c>
       <c r="P10">
-        <v>8.799639464334977E-05</v>
+        <v>0.03768488455988456</v>
       </c>
       <c r="Q10">
         <v>0.0004819407615555555</v>
@@ -1066,10 +1066,10 @@
         <v>0.004337466854</v>
       </c>
       <c r="S10">
-        <v>4.610423644777792E-08</v>
+        <v>2.300617733416042E-05</v>
       </c>
       <c r="T10">
-        <v>4.610423644777792E-08</v>
+        <v>2.300617733416042E-05</v>
       </c>
     </row>
   </sheetData>
